--- a/Table.xlsx
+++ b/Table.xlsx
@@ -137,7 +137,14 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43833333333333341"/>
+          <c:y val="4.2735042735042736E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -292,16 +299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -815,7 +822,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
